--- a/data/assistencia_por_jogo.xlsx
+++ b/data/assistencia_por_jogo.xlsx
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G. d. Arrascaeta</t>
+          <t>L. Mugni</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A. Patrick</t>
+          <t>K. Jorge</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,31 +498,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K. Jorge</t>
+          <t>A. Patrick</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J. Arias</t>
+          <t>G. d. Arrascaeta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/assistencia_por_jogo.xlsx
+++ b/data/assistencia_por_jogo.xlsx
@@ -453,16 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L. Mugni</t>
+          <t>G. d. Arrascaeta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -477,33 +477,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K. Jorge</t>
+          <t>A. Patrick</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A. Patrick</t>
+          <t>L. Piton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>V. d. Gama</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G. d. Arrascaeta</t>
+          <t>K. Jorge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C6" t="n">
